--- a/2009.xlsx
+++ b/2009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Clemson_Football_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4172B78-23DF-4670-99D2-51C08A11C88F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B134AA3-3DF5-4F71-A932-A0723E207186}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21450" windowHeight="14670" activeTab="1" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
+    <workbookView xWindow="1695" yWindow="270" windowWidth="21450" windowHeight="14385" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Depth" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="330">
   <si>
     <t>TD</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Win?</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -986,6 +983,51 @@
   </si>
   <si>
     <t>Drew Traylor</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>Unranked</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Wake</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Coastal</t>
+  </si>
+  <si>
+    <t>FSU</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1604,6 +1646,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1677,7 +1722,6 @@
       <sheetName val="Depth"/>
       <sheetName val="2008-7"/>
       <sheetName val="Blank Game"/>
-      <sheetName val="Game sample"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -3236,9 +3280,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3541,10 +3584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C53284-FF89-E74F-A4E7-AC50B8F7C354}">
-  <dimension ref="A1:T125"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B82"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3641,10 +3684,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
         <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -3656,10 +3699,10 @@
         <v>185</v>
       </c>
       <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
         <v>73</v>
-      </c>
-      <c r="P2" t="s">
-        <v>74</v>
       </c>
       <c r="Q2" t="str">
         <f>MONTH(M2) &amp; "'" &amp; DAY(M2)</f>
@@ -3701,13 +3744,13 @@
         <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
         <v>75</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>76</v>
-      </c>
-      <c r="L3" t="s">
-        <v>77</v>
       </c>
       <c r="M3" s="22">
         <v>43620</v>
@@ -3716,10 +3759,10 @@
         <v>265</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" ref="Q3:Q65" si="5">MONTH(M3) &amp; "'" &amp; DAY(M3)</f>
@@ -3758,10 +3801,10 @@
         <v>83</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
         <v>79</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -3773,10 +3816,10 @@
         <v>255</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="5"/>
@@ -3815,13 +3858,13 @@
         <v>41</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
         <v>82</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
       </c>
       <c r="M5" s="22">
         <v>43596</v>
@@ -3830,10 +3873,10 @@
         <v>200</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="5"/>
@@ -3872,13 +3915,13 @@
         <v>87</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
       </c>
       <c r="M6" s="22">
         <v>43618</v>
@@ -3887,10 +3930,10 @@
         <v>190</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="5"/>
@@ -3929,13 +3972,13 @@
         <v>65</v>
       </c>
       <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" s="22">
         <v>43620</v>
@@ -3944,10 +3987,10 @@
         <v>310</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="5"/>
@@ -3986,13 +4029,13 @@
         <v>82</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M8" s="22">
         <v>43620</v>
@@ -4001,10 +4044,10 @@
         <v>250</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="5"/>
@@ -4040,10 +4083,10 @@
         <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
         <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
@@ -4055,10 +4098,10 @@
         <v>190</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="5"/>
@@ -4094,13 +4137,13 @@
         <v>93</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="22">
         <v>43620</v>
@@ -4109,10 +4152,10 @@
         <v>280</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="5"/>
@@ -4147,13 +4190,13 @@
         <v>91</v>
       </c>
       <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
         <v>101</v>
       </c>
-      <c r="K11" t="s">
-        <v>102</v>
-      </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M11" s="22">
         <v>43620</v>
@@ -4162,10 +4205,10 @@
         <v>260</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="5"/>
@@ -4200,10 +4243,10 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
         <v>104</v>
-      </c>
-      <c r="K12" t="s">
-        <v>105</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -4215,10 +4258,10 @@
         <v>225</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="5"/>
@@ -4254,13 +4297,13 @@
         <v>40</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="22">
         <v>43621</v>
@@ -4269,10 +4312,10 @@
         <v>265</v>
       </c>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="5"/>
@@ -4308,10 +4351,10 @@
         <v>29</v>
       </c>
       <c r="J14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
         <v>109</v>
-      </c>
-      <c r="K14" t="s">
-        <v>110</v>
       </c>
       <c r="L14" t="s">
         <v>15</v>
@@ -4323,10 +4366,10 @@
         <v>180</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="5"/>
@@ -4362,10 +4405,10 @@
         <v>81</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s">
         <v>15</v>
@@ -4377,10 +4420,10 @@
         <v>195</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="5"/>
@@ -4416,13 +4459,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="23">
         <v>36678</v>
@@ -4431,10 +4474,10 @@
         <v>190</v>
       </c>
       <c r="O16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="5"/>
@@ -4470,13 +4513,13 @@
         <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M17" s="22">
         <v>43621</v>
@@ -4485,10 +4528,10 @@
         <v>240</v>
       </c>
       <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="s">
         <v>73</v>
-      </c>
-      <c r="P17" t="s">
-        <v>74</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="5"/>
@@ -4524,13 +4567,13 @@
         <v>18</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M18" s="23">
         <v>36678</v>
@@ -4539,10 +4582,10 @@
         <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="5"/>
@@ -4578,13 +4621,13 @@
         <v>48</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M19" s="22">
         <v>43618</v>
@@ -4593,10 +4636,10 @@
         <v>225</v>
       </c>
       <c r="O19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="5"/>
@@ -4632,13 +4675,13 @@
         <v>27</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M20" s="22">
         <v>43596</v>
@@ -4647,10 +4690,10 @@
         <v>195</v>
       </c>
       <c r="O20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="5"/>
@@ -4686,13 +4729,13 @@
         <v>38</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M21" s="22">
         <v>43595</v>
@@ -4701,10 +4744,10 @@
         <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="5"/>
@@ -4740,13 +4783,13 @@
         <v>89</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" t="s">
         <v>123</v>
       </c>
-      <c r="K22" t="s">
-        <v>124</v>
-      </c>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M22" s="22">
         <v>43621</v>
@@ -4755,10 +4798,10 @@
         <v>285</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="5"/>
@@ -4793,10 +4836,10 @@
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s">
         <v>15</v>
@@ -4808,10 +4851,10 @@
         <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="5"/>
@@ -4847,13 +4890,13 @@
         <v>85</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M24" s="22">
         <v>43621</v>
@@ -4862,10 +4905,10 @@
         <v>210</v>
       </c>
       <c r="O24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="5"/>
@@ -4901,13 +4944,13 @@
         <v>42</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M25" s="22">
         <v>43621</v>
@@ -4916,10 +4959,10 @@
         <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="5"/>
@@ -4955,13 +4998,13 @@
         <v>62</v>
       </c>
       <c r="J26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" t="s">
         <v>130</v>
       </c>
-      <c r="K26" t="s">
-        <v>131</v>
-      </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M26" s="22">
         <v>43620</v>
@@ -4970,10 +5013,10 @@
         <v>310</v>
       </c>
       <c r="O26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="5"/>
@@ -5009,13 +5052,13 @@
         <v>33</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M27" s="22">
         <v>43617</v>
@@ -5024,10 +5067,10 @@
         <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="5"/>
@@ -5063,13 +5106,13 @@
         <v>44</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M28" s="22">
         <v>43617</v>
@@ -5078,10 +5121,10 @@
         <v>220</v>
       </c>
       <c r="O28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="5"/>
@@ -5117,13 +5160,13 @@
         <v>8</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M29" s="22">
         <v>43623</v>
@@ -5132,10 +5175,10 @@
         <v>290</v>
       </c>
       <c r="O29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="5"/>
@@ -5171,13 +5214,13 @@
         <v>30</v>
       </c>
       <c r="J30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" t="s">
         <v>138</v>
       </c>
-      <c r="K30" t="s">
-        <v>139</v>
-      </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M30" s="22">
         <v>43618</v>
@@ -5186,10 +5229,10 @@
         <v>255</v>
       </c>
       <c r="O30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="5"/>
@@ -5225,13 +5268,13 @@
         <v>21</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" t="s">
         <v>87</v>
-      </c>
-      <c r="L31" t="s">
-        <v>88</v>
       </c>
       <c r="M31" s="22">
         <v>43620</v>
@@ -5240,10 +5283,10 @@
         <v>210</v>
       </c>
       <c r="O31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="5"/>
@@ -5279,10 +5322,10 @@
         <v>23</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L32" t="s">
         <v>15</v>
@@ -5294,10 +5337,10 @@
         <v>180</v>
       </c>
       <c r="O32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="5"/>
@@ -5333,10 +5376,10 @@
         <v>80</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L33" t="s">
         <v>15</v>
@@ -5348,10 +5391,10 @@
         <v>210</v>
       </c>
       <c r="O33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="5"/>
@@ -5387,13 +5430,13 @@
         <v>6</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M34" s="22">
         <v>43595</v>
@@ -5402,10 +5445,10 @@
         <v>185</v>
       </c>
       <c r="O34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="5"/>
@@ -5441,10 +5484,10 @@
         <v>55</v>
       </c>
       <c r="J35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s">
         <v>15</v>
@@ -5456,10 +5499,10 @@
         <v>280</v>
       </c>
       <c r="O35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="5"/>
@@ -5495,13 +5538,13 @@
         <v>12</v>
       </c>
       <c r="J36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" t="s">
         <v>151</v>
       </c>
-      <c r="K36" t="s">
-        <v>152</v>
-      </c>
       <c r="L36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M36" s="22">
         <v>43596</v>
@@ -5510,10 +5553,10 @@
         <v>190</v>
       </c>
       <c r="O36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="5"/>
@@ -5548,10 +5591,10 @@
         <v>97</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L37" t="s">
         <v>15</v>
@@ -5563,10 +5606,10 @@
         <v>265</v>
       </c>
       <c r="O37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="5"/>
@@ -5602,13 +5645,13 @@
         <v>70</v>
       </c>
       <c r="J38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M38" s="22">
         <v>43621</v>
@@ -5617,10 +5660,10 @@
         <v>320</v>
       </c>
       <c r="O38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="5"/>
@@ -5656,13 +5699,13 @@
         <v>61</v>
       </c>
       <c r="J39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39" t="s">
         <v>158</v>
       </c>
-      <c r="K39" t="s">
-        <v>159</v>
-      </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M39" s="22">
         <v>43623</v>
@@ -5671,10 +5714,10 @@
         <v>325</v>
       </c>
       <c r="O39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="5"/>
@@ -5710,10 +5753,10 @@
         <v>31</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L40" t="s">
         <v>15</v>
@@ -5725,10 +5768,10 @@
         <v>195</v>
       </c>
       <c r="O40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="5"/>
@@ -5764,13 +5807,13 @@
         <v>8</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M41" s="23">
         <v>36678</v>
@@ -5779,10 +5822,10 @@
         <v>230</v>
       </c>
       <c r="O41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="5"/>
@@ -5817,10 +5860,10 @@
         <v>45</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L42" t="s">
         <v>15</v>
@@ -5832,10 +5875,10 @@
         <v>230</v>
       </c>
       <c r="O42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q42" t="str">
         <f t="shared" si="5"/>
@@ -5871,13 +5914,13 @@
         <v>17</v>
       </c>
       <c r="J43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K43" t="s">
+        <v>82</v>
+      </c>
+      <c r="L43" t="s">
         <v>83</v>
-      </c>
-      <c r="L43" t="s">
-        <v>84</v>
       </c>
       <c r="M43" s="22">
         <v>43596</v>
@@ -5886,10 +5929,10 @@
         <v>225</v>
       </c>
       <c r="O43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="5"/>
@@ -5925,13 +5968,13 @@
         <v>19</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M44" s="23">
         <v>36678</v>
@@ -5940,10 +5983,10 @@
         <v>195</v>
       </c>
       <c r="O44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q44" t="str">
         <f t="shared" si="5"/>
@@ -5978,10 +6021,10 @@
         <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L45" t="s">
         <v>15</v>
@@ -5993,10 +6036,10 @@
         <v>295</v>
       </c>
       <c r="O45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="5"/>
@@ -6032,13 +6075,13 @@
         <v>99</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M46" s="22">
         <v>43620</v>
@@ -6047,10 +6090,10 @@
         <v>310</v>
       </c>
       <c r="O46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q46" t="str">
         <f t="shared" si="5"/>
@@ -6086,13 +6129,13 @@
         <v>88</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M47" s="22">
         <v>43619</v>
@@ -6101,10 +6144,10 @@
         <v>205</v>
       </c>
       <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="s">
         <v>73</v>
-      </c>
-      <c r="P47" t="s">
-        <v>74</v>
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="5"/>
@@ -6140,13 +6183,13 @@
         <v>26</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M48" s="23">
         <v>36678</v>
@@ -6155,10 +6198,10 @@
         <v>195</v>
       </c>
       <c r="O48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q48" t="str">
         <f t="shared" si="5"/>
@@ -6194,13 +6237,13 @@
         <v>3</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M49" s="22">
         <v>43618</v>
@@ -6209,10 +6252,10 @@
         <v>215</v>
       </c>
       <c r="O49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q49" t="str">
         <f t="shared" si="5"/>
@@ -6248,13 +6291,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M50" s="22">
         <v>43622</v>
@@ -6263,10 +6306,10 @@
         <v>300</v>
       </c>
       <c r="O50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q50" t="str">
         <f t="shared" si="5"/>
@@ -6302,10 +6345,10 @@
         <v>32</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L51" t="s">
         <v>15</v>
@@ -6317,10 +6360,10 @@
         <v>205</v>
       </c>
       <c r="O51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q51" t="str">
         <f t="shared" si="5"/>
@@ -6356,13 +6399,13 @@
         <v>36</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M52" s="22">
         <v>43617</v>
@@ -6371,10 +6414,10 @@
         <v>200</v>
       </c>
       <c r="O52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="5"/>
@@ -6410,13 +6453,13 @@
         <v>20</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L53" t="s">
         <v>83</v>
-      </c>
-      <c r="L53" t="s">
-        <v>84</v>
       </c>
       <c r="M53" s="22">
         <v>43619</v>
@@ -6425,10 +6468,10 @@
         <v>230</v>
       </c>
       <c r="O53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q53" t="str">
         <f t="shared" si="5"/>
@@ -6464,13 +6507,13 @@
         <v>74</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M54" s="22">
         <v>43622</v>
@@ -6479,10 +6522,10 @@
         <v>320</v>
       </c>
       <c r="O54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q54" t="str">
         <f t="shared" si="5"/>
@@ -6518,13 +6561,13 @@
         <v>2</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M55" s="22">
         <v>43617</v>
@@ -6533,10 +6576,10 @@
         <v>210</v>
       </c>
       <c r="O55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q55" t="str">
         <f t="shared" si="5"/>
@@ -6571,10 +6614,10 @@
         <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L56" t="s">
         <v>15</v>
@@ -6586,10 +6629,10 @@
         <v>180</v>
       </c>
       <c r="O56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q56" t="str">
         <f t="shared" si="5"/>
@@ -6624,10 +6667,10 @@
         <v>7</v>
       </c>
       <c r="J57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L57" t="s">
         <v>15</v>
@@ -6639,10 +6682,10 @@
         <v>170</v>
       </c>
       <c r="O57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q57" t="str">
         <f t="shared" si="5"/>
@@ -6677,10 +6720,10 @@
         <v>22</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L58" t="s">
         <v>15</v>
@@ -6692,10 +6735,10 @@
         <v>205</v>
       </c>
       <c r="O58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q58" t="str">
         <f t="shared" si="5"/>
@@ -6731,13 +6774,13 @@
         <v>94</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M59" s="22">
         <v>43620</v>
@@ -6746,10 +6789,10 @@
         <v>265</v>
       </c>
       <c r="O59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q59" t="str">
         <f t="shared" si="5"/>
@@ -6785,13 +6828,13 @@
         <v>92</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M60" s="22">
         <v>43617</v>
@@ -6800,10 +6843,10 @@
         <v>240</v>
       </c>
       <c r="O60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q60" t="str">
         <f t="shared" si="5"/>
@@ -6839,13 +6882,13 @@
         <v>64</v>
       </c>
       <c r="J61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M61" s="22">
         <v>43620</v>
@@ -6854,10 +6897,10 @@
         <v>310</v>
       </c>
       <c r="O61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q61" t="str">
         <f t="shared" si="5"/>
@@ -6893,10 +6936,10 @@
         <v>68</v>
       </c>
       <c r="J62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L62" t="s">
         <v>15</v>
@@ -6908,10 +6951,10 @@
         <v>285</v>
       </c>
       <c r="O62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q62" t="str">
         <f t="shared" si="5"/>
@@ -6947,13 +6990,13 @@
         <v>86</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M63" s="22">
         <v>43621</v>
@@ -6962,10 +7005,10 @@
         <v>260</v>
       </c>
       <c r="O63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q63" t="str">
         <f t="shared" si="5"/>
@@ -7001,10 +7044,10 @@
         <v>11</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s">
         <v>15</v>
@@ -7016,10 +7059,10 @@
         <v>200</v>
       </c>
       <c r="O64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q64" t="str">
         <f t="shared" si="5"/>
@@ -7055,13 +7098,13 @@
         <v>79</v>
       </c>
       <c r="J65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M65" s="22">
         <v>43622</v>
@@ -7070,10 +7113,10 @@
         <v>265</v>
       </c>
       <c r="O65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q65" t="str">
         <f t="shared" si="5"/>
@@ -7109,13 +7152,13 @@
         <v>78</v>
       </c>
       <c r="J66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M66" s="22">
         <v>43620</v>
@@ -7124,10 +7167,10 @@
         <v>280</v>
       </c>
       <c r="O66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q66" t="str">
         <f t="shared" ref="Q66:Q89" si="16">MONTH(M66) &amp; "'" &amp; DAY(M66)</f>
@@ -7163,13 +7206,13 @@
         <v>79</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M67" s="22">
         <v>43618</v>
@@ -7178,10 +7221,10 @@
         <v>235</v>
       </c>
       <c r="O67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q67" t="str">
         <f t="shared" si="16"/>
@@ -7217,10 +7260,10 @@
         <v>34</v>
       </c>
       <c r="J68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L68" t="s">
         <v>15</v>
@@ -7232,10 +7275,10 @@
         <v>210</v>
       </c>
       <c r="O68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q68" t="str">
         <f t="shared" si="16"/>
@@ -7271,10 +7314,10 @@
         <v>54</v>
       </c>
       <c r="J69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L69" t="s">
         <v>15</v>
@@ -7286,10 +7329,10 @@
         <v>315</v>
       </c>
       <c r="O69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q69" t="str">
         <f t="shared" si="16"/>
@@ -7325,13 +7368,13 @@
         <v>7</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K70" t="s">
+        <v>75</v>
+      </c>
+      <c r="L70" t="s">
         <v>76</v>
-      </c>
-      <c r="L70" t="s">
-        <v>77</v>
       </c>
       <c r="M70" s="22">
         <v>43621</v>
@@ -7340,10 +7383,10 @@
         <v>240</v>
       </c>
       <c r="O70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="16"/>
@@ -7379,13 +7422,13 @@
         <v>15</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M71" s="23">
         <v>36678</v>
@@ -7394,10 +7437,10 @@
         <v>180</v>
       </c>
       <c r="O71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q71" t="str">
         <f t="shared" si="16"/>
@@ -7432,10 +7475,10 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L72" t="s">
         <v>15</v>
@@ -7447,10 +7490,10 @@
         <v>280</v>
       </c>
       <c r="O72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="16"/>
@@ -7485,10 +7528,10 @@
         <v>47</v>
       </c>
       <c r="J73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L73" t="s">
         <v>15</v>
@@ -7500,10 +7543,10 @@
         <v>240</v>
       </c>
       <c r="O73" t="s">
+        <v>72</v>
+      </c>
+      <c r="P73" t="s">
         <v>73</v>
-      </c>
-      <c r="P73" t="s">
-        <v>74</v>
       </c>
       <c r="Q73" t="str">
         <f t="shared" si="16"/>
@@ -7539,13 +7582,13 @@
         <v>58</v>
       </c>
       <c r="J74" t="s">
+        <v>217</v>
+      </c>
+      <c r="K74" t="s">
         <v>218</v>
       </c>
-      <c r="K74" t="s">
-        <v>219</v>
-      </c>
       <c r="L74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M74" s="23">
         <v>36678</v>
@@ -7554,10 +7597,10 @@
         <v>255</v>
       </c>
       <c r="O74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q74" t="str">
         <f t="shared" si="16"/>
@@ -7593,10 +7636,10 @@
         <v>71</v>
       </c>
       <c r="J75" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K75" t="s">
         <v>220</v>
-      </c>
-      <c r="K75" t="s">
-        <v>221</v>
       </c>
       <c r="L75" t="s">
         <v>15</v>
@@ -7608,10 +7651,10 @@
         <v>225</v>
       </c>
       <c r="O75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q75" t="str">
         <f t="shared" si="16"/>
@@ -7646,10 +7689,10 @@
         <v>84</v>
       </c>
       <c r="J76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L76" t="s">
         <v>15</v>
@@ -7661,10 +7704,10 @@
         <v>230</v>
       </c>
       <c r="O76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q76" t="str">
         <f t="shared" si="16"/>
@@ -7700,13 +7743,13 @@
         <v>73</v>
       </c>
       <c r="J77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M77" s="22">
         <v>43621</v>
@@ -7715,10 +7758,10 @@
         <v>290</v>
       </c>
       <c r="O77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q77" t="str">
         <f t="shared" si="16"/>
@@ -7754,13 +7797,13 @@
         <v>28</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M78" s="22">
         <v>43596</v>
@@ -7769,10 +7812,10 @@
         <v>195</v>
       </c>
       <c r="O78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q78" t="str">
         <f t="shared" si="16"/>
@@ -7808,13 +7851,13 @@
         <v>5</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M79" s="22">
         <v>43618</v>
@@ -7823,10 +7866,10 @@
         <v>265</v>
       </c>
       <c r="O79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q79" t="str">
         <f t="shared" si="16"/>
@@ -7861,10 +7904,10 @@
         <v>63</v>
       </c>
       <c r="J80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L80" t="s">
         <v>15</v>
@@ -7876,10 +7919,10 @@
         <v>295</v>
       </c>
       <c r="O80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q80" t="str">
         <f t="shared" si="16"/>
@@ -7915,13 +7958,13 @@
         <v>98</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M81" s="22">
         <v>43619</v>
@@ -7930,10 +7973,10 @@
         <v>305</v>
       </c>
       <c r="O81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q81" t="str">
         <f t="shared" si="16"/>
@@ -7969,13 +8012,13 @@
         <v>95</v>
       </c>
       <c r="J82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M82" s="22">
         <v>43620</v>
@@ -7984,10 +8027,10 @@
         <v>245</v>
       </c>
       <c r="O82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q82" t="str">
         <f t="shared" si="16"/>
@@ -8023,13 +8066,13 @@
         <v>16</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M83" s="22">
         <v>43618</v>
@@ -8038,10 +8081,10 @@
         <v>210</v>
       </c>
       <c r="O83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q83" t="str">
         <f t="shared" si="16"/>
@@ -8077,13 +8120,13 @@
         <v>72</v>
       </c>
       <c r="J84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M84" s="22">
         <v>43622</v>
@@ -8092,10 +8135,10 @@
         <v>300</v>
       </c>
       <c r="O84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q84" t="str">
         <f t="shared" si="16"/>
@@ -8131,13 +8174,13 @@
         <v>35</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M85" s="22">
         <v>43594</v>
@@ -8146,10 +8189,10 @@
         <v>195</v>
       </c>
       <c r="O85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q85" t="str">
         <f t="shared" si="16"/>
@@ -8184,13 +8227,13 @@
         <v>88</v>
       </c>
       <c r="J86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M86" s="22">
         <v>43619</v>
@@ -8199,10 +8242,10 @@
         <v>190</v>
       </c>
       <c r="O86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q86" t="str">
         <f t="shared" si="16"/>
@@ -8238,10 +8281,10 @@
         <v>46</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L87" t="s">
         <v>15</v>
@@ -8253,10 +8296,10 @@
         <v>215</v>
       </c>
       <c r="O87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q87" t="str">
         <f t="shared" si="16"/>
@@ -8292,13 +8335,13 @@
         <v>50</v>
       </c>
       <c r="J88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M88" s="22">
         <v>43618</v>
@@ -8307,10 +8350,10 @@
         <v>250</v>
       </c>
       <c r="O88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q88" t="str">
         <f t="shared" si="16"/>
@@ -8346,13 +8389,13 @@
         <v>96</v>
       </c>
       <c r="J89" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K89" t="s">
         <v>244</v>
       </c>
-      <c r="K89" t="s">
-        <v>245</v>
-      </c>
       <c r="L89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M89" s="22">
         <v>43618</v>
@@ -8361,10 +8404,10 @@
         <v>200</v>
       </c>
       <c r="O89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q89" t="str">
         <f t="shared" si="16"/>
@@ -8611,83 +8654,501 @@
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
     </row>
-    <row r="117" spans="1:10" ht="30.95" customHeight="1">
-      <c r="A117" s="19"/>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="A118" t="s">
+    <row r="123" spans="1:10" ht="30.95" customHeight="1">
+      <c r="A123" s="19"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
         <v>58</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B124" t="s">
         <v>59</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C124" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D124" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E118" s="10" t="s">
+      <c r="E124" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G118" s="10" t="s">
+      <c r="F124" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H124" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H118" s="10" t="s">
+      <c r="I124" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I118" s="10" t="s">
+      <c r="J124" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="J118" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119">
-        <v>7</v>
-      </c>
-      <c r="E119" t="s">
-        <v>63</v>
-      </c>
-      <c r="F119" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120">
-        <v>8</v>
-      </c>
-      <c r="F120" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124">
-        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>315</v>
+      </c>
+      <c r="C125" s="10">
+        <v>37</v>
+      </c>
+      <c r="D125">
+        <v>14</v>
+      </c>
+      <c r="E125" t="str">
+        <f>IF(C125&gt;D125,"T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="F125" t="s">
+        <v>64</v>
+      </c>
+      <c r="G125">
+        <v>361</v>
+      </c>
+      <c r="H125">
+        <v>299</v>
+      </c>
+      <c r="I125" t="s">
+        <v>316</v>
+      </c>
+      <c r="J125" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>317</v>
+      </c>
+      <c r="C126" s="10">
+        <v>27</v>
+      </c>
+      <c r="D126">
+        <v>30</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" ref="E126:E138" si="17">IF(C126&gt;D126,"T","F")</f>
+        <v>F</v>
+      </c>
+      <c r="F126" t="s">
+        <v>318</v>
+      </c>
+      <c r="G126">
+        <v>386</v>
+      </c>
+      <c r="H126">
+        <v>418</v>
+      </c>
+      <c r="I126" t="s">
+        <v>316</v>
+      </c>
+      <c r="J126">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>319</v>
+      </c>
+      <c r="C127" s="10">
+        <v>25</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="17"/>
+        <v>T</v>
+      </c>
+      <c r="F127" t="s">
+        <v>64</v>
+      </c>
+      <c r="G127">
+        <v>253</v>
+      </c>
+      <c r="H127">
+        <v>54</v>
+      </c>
+      <c r="I127" t="s">
+        <v>316</v>
+      </c>
+      <c r="J127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>320</v>
+      </c>
+      <c r="C128" s="10">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>14</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="17"/>
+        <v>F</v>
+      </c>
+      <c r="F128" t="s">
+        <v>64</v>
+      </c>
+      <c r="G128">
+        <v>309</v>
+      </c>
+      <c r="H128">
+        <v>388</v>
+      </c>
+      <c r="I128" t="s">
+        <v>316</v>
+      </c>
+      <c r="J128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>321</v>
+      </c>
+      <c r="C129" s="10">
+        <v>21</v>
+      </c>
+      <c r="D129">
+        <v>24</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="17"/>
+        <v>F</v>
+      </c>
+      <c r="F129" t="s">
+        <v>318</v>
+      </c>
+      <c r="G129">
+        <v>274</v>
+      </c>
+      <c r="H129">
+        <v>284</v>
+      </c>
+      <c r="I129" t="s">
+        <v>316</v>
+      </c>
+      <c r="J129" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>322</v>
+      </c>
+      <c r="C130" s="10">
+        <v>38</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="17"/>
+        <v>T</v>
+      </c>
+      <c r="F130" t="s">
+        <v>64</v>
+      </c>
+      <c r="G130">
+        <v>382</v>
+      </c>
+      <c r="H130">
+        <v>178</v>
+      </c>
+      <c r="I130" t="s">
+        <v>316</v>
+      </c>
+      <c r="J130" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>323</v>
+      </c>
+      <c r="C131" s="10">
+        <v>40</v>
+      </c>
+      <c r="D131">
+        <v>37</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="17"/>
+        <v>T</v>
+      </c>
+      <c r="F131" t="s">
+        <v>318</v>
+      </c>
+      <c r="G131">
+        <v>410</v>
+      </c>
+      <c r="H131">
+        <v>433</v>
+      </c>
+      <c r="I131" t="s">
+        <v>316</v>
+      </c>
+      <c r="J131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>324</v>
+      </c>
+      <c r="C132" s="10">
+        <v>49</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="17"/>
+        <v>T</v>
+      </c>
+      <c r="F132" t="s">
+        <v>64</v>
+      </c>
+      <c r="G132">
+        <v>400</v>
+      </c>
+      <c r="H132">
+        <v>170</v>
+      </c>
+      <c r="I132" t="s">
+        <v>316</v>
+      </c>
+      <c r="J132" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>325</v>
+      </c>
+      <c r="C133" s="10">
+        <v>40</v>
+      </c>
+      <c r="D133">
+        <v>24</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="17"/>
+        <v>T</v>
+      </c>
+      <c r="F133" t="s">
+        <v>64</v>
+      </c>
+      <c r="G133">
+        <v>483</v>
+      </c>
+      <c r="H133">
+        <v>392</v>
+      </c>
+      <c r="I133" t="s">
+        <v>316</v>
+      </c>
+      <c r="J133" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>326</v>
+      </c>
+      <c r="C134" s="10">
+        <v>43</v>
+      </c>
+      <c r="D134">
+        <v>23</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="17"/>
+        <v>T</v>
+      </c>
+      <c r="F134" t="s">
+        <v>318</v>
+      </c>
+      <c r="G134">
+        <v>454</v>
+      </c>
+      <c r="H134">
+        <v>377</v>
+      </c>
+      <c r="I134">
+        <v>24</v>
+      </c>
+      <c r="J134" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>327</v>
+      </c>
+      <c r="C135" s="10">
+        <v>34</v>
+      </c>
+      <c r="D135">
+        <v>21</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="17"/>
+        <v>T</v>
+      </c>
+      <c r="F135" t="s">
+        <v>64</v>
+      </c>
+      <c r="G135">
+        <v>366</v>
+      </c>
+      <c r="H135">
+        <v>273</v>
+      </c>
+      <c r="I135">
+        <v>18</v>
+      </c>
+      <c r="J135" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>328</v>
+      </c>
+      <c r="C136" s="10">
+        <v>17</v>
+      </c>
+      <c r="D136">
+        <v>34</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="17"/>
+        <v>F</v>
+      </c>
+      <c r="F136" t="s">
+        <v>318</v>
+      </c>
+      <c r="G136">
+        <v>260</v>
+      </c>
+      <c r="H136">
+        <v>388</v>
+      </c>
+      <c r="I136">
+        <v>15</v>
+      </c>
+      <c r="J136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137">
         <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" s="10">
+        <v>34</v>
+      </c>
+      <c r="D137">
+        <v>39</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="17"/>
+        <v>F</v>
+      </c>
+      <c r="F137" t="s">
+        <v>65</v>
+      </c>
+      <c r="G137">
+        <v>414</v>
+      </c>
+      <c r="H137">
+        <v>469</v>
+      </c>
+      <c r="I137">
+        <v>25</v>
+      </c>
+      <c r="J137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>329</v>
+      </c>
+      <c r="C138" s="10">
+        <v>21</v>
+      </c>
+      <c r="D138">
+        <v>13</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="17"/>
+        <v>T</v>
+      </c>
+      <c r="F138" t="s">
+        <v>65</v>
+      </c>
+      <c r="G138">
+        <v>321</v>
+      </c>
+      <c r="H138">
+        <v>277</v>
+      </c>
+      <c r="I138" t="s">
+        <v>316</v>
+      </c>
+      <c r="J138" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -8761,10 +9222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA54D28-598A-41A4-B06F-94D8E202122E}">
-  <dimension ref="A1:BR123"/>
+  <dimension ref="A1:BR132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104:J106"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8786,7 +9247,7 @@
         <v>49</v>
       </c>
       <c r="BG1" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:70">
@@ -8829,109 +9290,109 @@
       <c r="M2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="25"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="25"/>
-      <c r="BG2" s="25"/>
-      <c r="BH2" s="25"/>
-      <c r="BI2" s="25"/>
-      <c r="BJ2" s="25"/>
-      <c r="BK2" s="25"/>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="26"/>
+      <c r="BL2" s="26"/>
+      <c r="BM2" s="26"/>
+      <c r="BN2" s="26"/>
+      <c r="BO2" s="26"/>
+      <c r="BP2" s="26"/>
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="26"/>
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,3,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,4,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,5,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,6,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,7,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,9,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,10,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$4:$Y$12,11,FALSE)</f>
+        <f>VLOOKUP(B3,$O$4:$Y$11,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,3,FALSE)</f>
+        <f>VLOOKUP(B3,$O$13:$X$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,4,FALSE)</f>
+        <f>VLOOKUP(B3,$O$13:$X$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$14:$X$36,6,FALSE)</f>
+        <f>VLOOKUP(B3,$O$13:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O3" s="24"/>
@@ -8990,53 +9451,53 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="e">
-        <f t="shared" ref="C4:C6" si="0">VLOOKUP(B4,$O$4:$Y$12,3,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D4" s="1" t="e">
-        <f t="shared" ref="D4:D6" si="1">VLOOKUP(B4,$O$4:$Y$12,4,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" s="1" t="e">
-        <f t="shared" ref="E4:E6" si="2">VLOOKUP(B4,$O$4:$Y$12,5,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F4" s="1" t="e">
-        <f t="shared" ref="F4:F6" si="3">VLOOKUP(B4,$O$4:$Y$12,6,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G4" s="1" t="e">
-        <f t="shared" ref="G4:G6" si="4">VLOOKUP(B4,$O$4:$Y$12,7,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="1" t="e">
-        <f t="shared" ref="H4:H6" si="5">VLOOKUP(B4,$O$4:$Y$12,9,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I4" s="1" t="e">
-        <f t="shared" ref="I4:I6" si="6">VLOOKUP(B4,$O$4:$Y$12,10,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f t="shared" ref="J4:J6" si="7">VLOOKUP(B4,$O$4:$Y$12,11,FALSE)</f>
+        <f>VLOOKUP(B4,$O$4:$Y$11,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K4" s="1" t="e">
-        <f t="shared" ref="K4:K6" si="8">VLOOKUP(B4,$O$14:$X$36,3,FALSE)</f>
+        <f>VLOOKUP(B4,$O$13:$X$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f t="shared" ref="L4:L6" si="9">VLOOKUP(B4,$O$14:$X$36,4,FALSE)</f>
+        <f>VLOOKUP(B4,$O$13:$X$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="1" t="e">
-        <f t="shared" ref="M4:M6" si="10">VLOOKUP(B4,$O$14:$X$36,6,FALSE)</f>
+        <f>VLOOKUP(B4,$O$13:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O4" s="24"/>
@@ -9095,53 +9556,53 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D5" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E5" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F5" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G5" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H5" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I5" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J5" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(B5,$O$4:$Y$11,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K5" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(B5,$O$13:$X$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L5" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(B5,$O$13:$X$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M5" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(B5,$O$13:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O5" s="24"/>
@@ -9200,53 +9661,53 @@
     </row>
     <row r="6" spans="1:70" ht="25.5">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D6" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E6" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F6" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G6" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H6" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I6" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J6" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(B6,$O$4:$Y$11,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K6" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(B6,$O$13:$X$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L6" s="1" t="e">
-        <f t="shared" si="9"/>
+        <f>VLOOKUP(B6,$O$13:$X$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f>VLOOKUP(B6,$O$13:$X$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O6" s="24"/>
@@ -9436,9 +9897,12 @@
       <c r="BD9" s="11"/>
       <c r="BE9" s="11"/>
     </row>
-    <row r="10" spans="1:70">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:70" ht="31.5">
+      <c r="A10" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="B10" s="24"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -9479,35 +9943,48 @@
       <c r="BD10" s="11"/>
       <c r="BE10" s="11"/>
     </row>
-    <row r="11" spans="1:70" ht="31.5">
-      <c r="A11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
+    <row r="11" spans="1:70">
+      <c r="A11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
       <c r="AP11" s="24"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
@@ -9525,48 +10002,55 @@
       <c r="BD11" s="11"/>
       <c r="BE11" s="11"/>
     </row>
-    <row r="12" spans="1:70">
-      <c r="A12" s="11" t="s">
-        <v>1</v>
+    <row r="12" spans="1:70" ht="25.5">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
+        <v>250</v>
+      </c>
+      <c r="C12" t="e">
+        <f>VLOOKUP(B12,$AA$4:$AN$36,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="e">
+        <f>VLOOKUP(B12,$AA$4:$AN$36,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="e">
+        <f>VLOOKUP(B12,$AA$4:$AN$36,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="e">
+        <f>VLOOKUP(B12,$AA$4:$AN$36,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" t="e">
+        <f>VLOOKUP(B12,$AA$4:$AN$36,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" t="e">
+        <f>VLOOKUP(B12,$AA$4:$AN$36,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="e">
+        <f>VLOOKUP(B12,$AA$4:$AN$36,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
       <c r="AP12" s="24"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
@@ -9586,7 +10070,7 @@
     </row>
     <row r="13" spans="1:70" ht="25.5">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>251</v>
@@ -9620,19 +10104,19 @@
         <v>#N/A</v>
       </c>
       <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
       <c r="AP13" s="24"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
@@ -9652,37 +10136,37 @@
     </row>
     <row r="14" spans="1:70" ht="25.5">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>252</v>
       </c>
       <c r="C14" t="e">
-        <f t="shared" ref="C14:C17" si="11">VLOOKUP(B14,$AA$4:$AN$36,3,FALSE)</f>
+        <f>VLOOKUP(B14,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D14" t="e">
-        <f t="shared" ref="D14:D17" si="12">VLOOKUP(B14,$AA$4:$AN$36,4,FALSE)</f>
+        <f>VLOOKUP(B14,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E14" t="e">
-        <f t="shared" ref="E14:E17" si="13">VLOOKUP(B14,$AA$4:$AN$36,5,FALSE)</f>
+        <f>VLOOKUP(B14,$AA$4:$AN$36,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F14" t="e">
-        <f t="shared" ref="F14:F17" si="14">VLOOKUP(B14,$AA$4:$AN$36,6,FALSE)</f>
+        <f>VLOOKUP(B14,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G14" t="e">
-        <f t="shared" ref="G14:G17" si="15">VLOOKUP(B14,$AA$4:$AN$36,7,FALSE)</f>
+        <f>VLOOKUP(B14,$AA$4:$AN$36,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H14" t="e">
-        <f t="shared" ref="H14:H18" si="16">VLOOKUP(B14,$AA$4:$AN$36,8,FALSE)</f>
+        <f>VLOOKUP(B14,$AA$4:$AN$36,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" t="e">
-        <f t="shared" ref="I14:I17" si="17">VLOOKUP(B14,$AA$4:$AN$36,10,FALSE)</f>
+        <f>VLOOKUP(B14,$AA$4:$AN$36,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O14" s="24"/>
@@ -9716,39 +10200,39 @@
       <c r="BD14" s="11"/>
       <c r="BE14" s="11"/>
     </row>
-    <row r="15" spans="1:70" ht="25.5">
+    <row r="15" spans="1:70">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>253</v>
       </c>
       <c r="C15" t="e">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(B15,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D15" t="e">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B15,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E15" t="e">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B15,$AA$4:$AN$36,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F15" t="e">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B15,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B15,$AA$4:$AN$36,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H15" t="e">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B15,$AA$4:$AN$36,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B15,$AA$4:$AN$36,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O15" s="24"/>
@@ -9757,10 +10241,10 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -9782,39 +10266,39 @@
       <c r="BD15" s="11"/>
       <c r="BE15" s="11"/>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" ht="25.5">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>254</v>
       </c>
       <c r="C16" t="e">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(B16,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D16" t="e">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B16,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E16" t="e">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B16,$AA$4:$AN$36,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F16" t="e">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B16,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G16" t="e">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B16,$AA$4:$AN$36,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H16" t="e">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B16,$AA$4:$AN$36,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I16" t="e">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B16,$AA$4:$AN$36,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O16" s="24"/>
@@ -9823,10 +10307,10 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -9848,51 +10332,19 @@
       <c r="BD16" s="11"/>
       <c r="BE16" s="11"/>
     </row>
-    <row r="17" spans="1:57" ht="25.5">
-      <c r="A17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F17" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I17" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
+    <row r="17" spans="1:57">
+      <c r="A17" s="1"/>
+      <c r="B17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -9919,14 +10371,14 @@
       <c r="B18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -9946,7 +10398,7 @@
       <c r="BB18" s="11"/>
       <c r="BC18" s="11"/>
       <c r="BD18" s="11"/>
-      <c r="BE18" s="11"/>
+      <c r="BE18" s="1"/>
     </row>
     <row r="19" spans="1:57">
       <c r="A19" s="1"/>
@@ -9980,12 +10432,12 @@
       <c r="BB19" s="11"/>
       <c r="BC19" s="11"/>
       <c r="BD19" s="11"/>
-      <c r="BE19" s="1"/>
+      <c r="BE19" s="11"/>
     </row>
     <row r="20" spans="1:57">
       <c r="A20" s="1"/>
-      <c r="B20" s="24"/>
-      <c r="O20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="O20" s="25"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
@@ -9999,7 +10451,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AP20" s="24"/>
+      <c r="AP20" s="25"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
@@ -10110,25 +10562,25 @@
     </row>
     <row r="24" spans="1:57" ht="25.5">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" ref="C24:C38" si="0">VLOOKUP(B24,$AA$4:$AN$36,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" ref="D24:D38" si="1">VLOOKUP(B24,$AA$4:$AN$36,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,9,FALSE)</f>
+        <f t="shared" ref="E24:E38" si="2">VLOOKUP(B24,$AA$4:$AN$36,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f>VLOOKUP(B24,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" ref="F24:F38" si="3">VLOOKUP(B24,$AA$4:$AN$36,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AP24" s="24"/>
@@ -10150,25 +10602,25 @@
     </row>
     <row r="25" spans="1:57" ht="25.5">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" t="e">
-        <f t="shared" ref="C25:C38" si="18">VLOOKUP(B25,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D25" t="e">
-        <f t="shared" ref="D25:D38" si="19">VLOOKUP(B25,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E25" t="e">
-        <f t="shared" ref="E25:E38" si="20">VLOOKUP(B25,$AA$4:$AN$36,9,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F25" t="e">
-        <f t="shared" ref="F25:F38" si="21">VLOOKUP(B25,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="AP25" s="24"/>
@@ -10190,25 +10642,25 @@
     </row>
     <row r="26" spans="1:57" ht="25.5">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C26" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D26" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E26" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F26" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="AP26" s="24"/>
@@ -10230,2518 +10682,2518 @@
     </row>
     <row r="27" spans="1:57">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D27" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E27" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F27" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:57" ht="25.5">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D28" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:57">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C29" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D29" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E29" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F29" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:57" ht="25.5">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D30" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E30" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F30" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:57" ht="25.5">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C31" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D31" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E31" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F31" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:57" ht="25.5">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D32" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="25.5">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C32" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F32" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="25.5">
-      <c r="A33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>265</v>
-      </c>
       <c r="C33" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D33" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E33" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F33" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="25.5">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="25.5">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D34" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F34" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="25.5">
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="C34" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E34" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F34" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="25.5">
-      <c r="A35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="24" t="s">
+      <c r="C35" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D35" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F35" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="25.5">
+      <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="C35" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D35" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F35" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="25.5">
-      <c r="A36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="24" t="s">
+      <c r="C36" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D36" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F36" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="25.5">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="C36" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D36" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E36" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F36" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="25.5">
-      <c r="A37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="24" t="s">
+      <c r="C37" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D37" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F37" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="25.5">
+      <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="C37" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D37" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E37" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F37" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="25.5">
-      <c r="A38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>315</v>
-      </c>
       <c r="C38" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D38" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E38" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F38" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="24"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="24"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="24"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="24"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="24"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="24"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="24"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
-      <c r="B46" s="24"/>
-    </row>
-    <row r="47" spans="1:13" ht="23.25">
-      <c r="A47" s="16" t="s">
+      <c r="B46" s="25"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="25"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="25"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1"/>
+      <c r="B49" s="25"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1"/>
+      <c r="B50" s="24"/>
+    </row>
+    <row r="51" spans="1:13" ht="23.25">
+      <c r="A51" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="24"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1" t="s">
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B52" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C52" t="s">
         <v>35</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D52" t="s">
         <v>36</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E52" t="s">
         <v>37</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F52" t="s">
         <v>50</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G52" t="s">
         <v>51</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H52" t="s">
         <v>8</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I52" t="s">
         <v>53</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J52" t="s">
         <v>54</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K52" t="s">
         <v>15</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L52" t="s">
         <v>38</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="25.5">
-      <c r="A49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="C49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M49" t="e">
-        <f>VLOOKUP(B49,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="25.5">
-      <c r="A50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="C50" t="e">
-        <f t="shared" ref="C50:C89" si="22">VLOOKUP(B50,$AP$4:$BE$26,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D50" t="e">
-        <f t="shared" ref="D50:D89" si="23">VLOOKUP(B50,$AP$4:$BE$26,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E50" t="e">
-        <f t="shared" ref="E50:E89" si="24">VLOOKUP(B50,$AP$4:$BE$26,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F50" t="e">
-        <f t="shared" ref="F50:F89" si="25">VLOOKUP(B50,$AP$4:$BE$26,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" t="e">
-        <f t="shared" ref="G50:G89" si="26">VLOOKUP(B50,$AP$4:$BE$26,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H50" t="e">
-        <f t="shared" ref="H50:H89" si="27">VLOOKUP(B50,$AP$4:$BE$26,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I50" t="e">
-        <f t="shared" ref="I50:I89" si="28">VLOOKUP(B50,$AP$4:$BE$26,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J50" t="e">
-        <f t="shared" ref="J50:J89" si="29">VLOOKUP(B50,$AP$4:$BE$26,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K50" t="e">
-        <f t="shared" ref="K50:K89" si="30">VLOOKUP(B50,$AP$4:$BE$26,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L50" t="e">
-        <f t="shared" ref="L50:L89" si="31">VLOOKUP(B50,$AP$4:$BE$26,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M50" t="e">
-        <f t="shared" ref="M50:M89" si="32">VLOOKUP(B50,$AP$4:$BE$26,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="C51" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E51" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F51" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G51" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H51" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I51" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K51" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L51" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M51" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="25.5">
-      <c r="A52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E52" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H52" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I52" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K52" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L52" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M52" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" ht="25.5">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C53" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="C53:C93" si="4">VLOOKUP(B53,$AP$4:$BE$26,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D53" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="D53:D93" si="5">VLOOKUP(B53,$AP$4:$BE$26,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E53" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="E53:E93" si="6">VLOOKUP(B53,$AP$4:$BE$26,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F53" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="F53:F93" si="7">VLOOKUP(B53,$AP$4:$BE$26,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G53" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="G53:G93" si="8">VLOOKUP(B53,$AP$4:$BE$26,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H53" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H53:H93" si="9">VLOOKUP(B53,$AP$4:$BE$26,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I53" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I53:I93" si="10">VLOOKUP(B53,$AP$4:$BE$26,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J53" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="J53:J93" si="11">VLOOKUP(B53,$AP$4:$BE$26,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K53" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="K53:K93" si="12">VLOOKUP(B53,$AP$4:$BE$26,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L53" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="L53:L93" si="13">VLOOKUP(B53,$AP$4:$BE$26,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M53" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="M53:M93" si="14">VLOOKUP(B53,$AP$4:$BE$26,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="25.5">
       <c r="A54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C54" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D54" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E54" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F54" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G54" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H54" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I54" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K54" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L54" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M54" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="25.5">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C55" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D55" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E55" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F55" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G55" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H55" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I55" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J55" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K55" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L55" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M55" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="25.5">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C56" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D56" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E56" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F56" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G56" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H56" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I56" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K56" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L56" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M56" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="25.5">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C57" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D57" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E57" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F57" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G57" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H57" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I57" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J57" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K57" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L57" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M57" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="25.5">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C58" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D58" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E58" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F58" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G58" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H58" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I58" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J58" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K58" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L58" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M58" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="25.5">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C59" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D59" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E59" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F59" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G59" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H59" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I59" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J59" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K59" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L59" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M59" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="25.5">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C60" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D60" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E60" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F60" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G60" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H60" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I60" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J60" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K60" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L60" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M60" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="25.5">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C61" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D61" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E61" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F61" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G61" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H61" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I61" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J61" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K61" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L61" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M61" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="25.5">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C62" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D62" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E62" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F62" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G62" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H62" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I62" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K62" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L62" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="25.5">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C63" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D63" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E63" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F63" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G63" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H63" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I63" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K63" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L63" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M63" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="25.5">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C64" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D64" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E64" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F64" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G64" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H64" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I64" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J64" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K64" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L64" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M64" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="25.5">
       <c r="A65" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C65" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D65" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E65" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F65" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G65" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H65" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I65" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J65" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K65" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L65" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M65" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="25.5">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C66" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D66" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E66" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F66" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G66" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H66" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I66" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J66" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K66" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L66" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M66" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="25.5">
       <c r="A67" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C67" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D67" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E67" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F67" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G67" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H67" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I67" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K67" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L67" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M67" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="25.5">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C68" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D68" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E68" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F68" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G68" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H68" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I68" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J68" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K68" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L68" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M68" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="25.5">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C69" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D69" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E69" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F69" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G69" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H69" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I69" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K69" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L69" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M69" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="25.5">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C70" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D70" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E70" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F70" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G70" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H70" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I70" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J70" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K70" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L70" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M70" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="25.5">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C71" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D71" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E71" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F71" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G71" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H71" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I71" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J71" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K71" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L71" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M71" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="25.5">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C72" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D72" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E72" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F72" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G72" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H72" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I72" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J72" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K72" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L72" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M72" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="25.5">
       <c r="A73" s="1" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C73" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D73" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E73" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F73" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G73" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H73" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I73" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K73" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L73" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M73" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="25.5">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C74" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D74" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E74" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F74" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G74" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H74" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I74" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J74" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K74" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L74" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M74" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="25.5">
       <c r="A75" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C75" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D75" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E75" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F75" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G75" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H75" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I75" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J75" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K75" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L75" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M75" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="25.5">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C76" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D76" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E76" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F76" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G76" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H76" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I76" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J76" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K76" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L76" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M76" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="25.5">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C77" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D77" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E77" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F77" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G77" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H77" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I77" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K77" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L77" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M77" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="25.5">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C78" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D78" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E78" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F78" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G78" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H78" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I78" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J78" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K78" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L78" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M78" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="25.5">
       <c r="A79" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C79" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D79" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E79" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F79" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G79" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H79" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I79" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J79" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K79" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L79" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M79" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="25.5">
       <c r="A80" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C80" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D80" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E80" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F80" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G80" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I80" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J80" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K80" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L80" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M80" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="25.5">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C81" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D81" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E81" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F81" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G81" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H81" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J81" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K81" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L81" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M81" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="25.5">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C82" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D82" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E82" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F82" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G82" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H82" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I82" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K82" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L82" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M82" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="25.5">
       <c r="A83" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C83" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D83" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E83" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F83" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G83" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H83" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I83" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J83" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L83" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M83" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="25.5">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C84" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D84" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E84" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F84" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G84" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H84" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I84" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J84" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K84" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L84" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M84" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="25.5">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C85" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D85" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E85" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F85" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G85" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H85" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I85" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K85" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L85" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M85" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="25.5">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C86" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D86" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E86" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F86" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G86" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H86" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I86" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J86" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K86" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L86" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M86" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="25.5">
       <c r="A87" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C87" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D87" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E87" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F87" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G87" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H87" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I87" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J87" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K87" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L87" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M87" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="25.5">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C88" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D88" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E88" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F88" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G88" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H88" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I88" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J88" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K88" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L88" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M88" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="25.5">
       <c r="A89" s="1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C89" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D89" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="E89" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="F89" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="G89" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="H89" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="I89" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="J89" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="K89" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="L89" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="M89" t="e">
-        <f t="shared" si="32"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="1"/>
-      <c r="B90" s="24"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="1"/>
-      <c r="B91" s="24"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="1"/>
-      <c r="B92" s="24"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="1"/>
-      <c r="B93" s="24"/>
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="25.5">
+      <c r="A90" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D90" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E90" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F90" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G90" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H90" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I90" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J90" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K90" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L90" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M90" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="25.5">
+      <c r="A91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D91" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E91" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F91" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G91" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H91" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I91" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J91" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K91" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L91" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M91" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="25.5">
+      <c r="A92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C92" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D92" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E92" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F92" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G92" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H92" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I92" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J92" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K92" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L92" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M92" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="25.5">
+      <c r="A93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C93" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D93" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E93" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F93" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G93" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H93" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I93" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J93" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K93" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L93" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M93" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1"/>
@@ -12775,171 +13227,33 @@
       <c r="A101" s="1"/>
       <c r="B101" s="24"/>
     </row>
-    <row r="102" spans="1:10" ht="23.25">
-      <c r="A102" s="16" t="s">
-        <v>39</v>
-      </c>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1"/>
       <c r="B102" s="24"/>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>40</v>
-      </c>
-      <c r="D103" t="s">
-        <v>41</v>
-      </c>
-      <c r="E103" t="s">
-        <v>42</v>
-      </c>
-      <c r="F103" t="s">
-        <v>43</v>
-      </c>
-      <c r="G103" t="s">
-        <v>55</v>
-      </c>
-      <c r="H103" t="s">
-        <v>44</v>
-      </c>
-      <c r="I103" t="s">
-        <v>56</v>
-      </c>
-      <c r="J103" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="25.5">
-      <c r="A104" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="C104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$16,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J104" t="e">
-        <f>VLOOKUP(B104,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="25.5">
-      <c r="A105" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="C105" t="e">
-        <f t="shared" ref="C105:C106" si="33">VLOOKUP(B105,$BG$4:$BR$16,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D105" t="e">
-        <f t="shared" ref="D105:D106" si="34">VLOOKUP(B105,$BG$4:$BR$6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E105" t="e">
-        <f t="shared" ref="E105:E106" si="35">VLOOKUP(B105,$BG$4:$BR$6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F105" t="e">
-        <f t="shared" ref="F105:F106" si="36">VLOOKUP(B105,$BG$4:$BR$6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G105" t="e">
-        <f t="shared" ref="G105:G106" si="37">VLOOKUP(B105,$BG$4:$BR$6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H105" t="e">
-        <f t="shared" ref="H105:H107" si="38">VLOOKUP(B105,$BG$4:$BR$6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I105" t="e">
-        <f t="shared" ref="I105:I106" si="39">VLOOKUP(B105,$BG$4:$BR$6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J105" t="e">
-        <f t="shared" ref="J105:J106" si="40">VLOOKUP(B105,$BG$4:$BR$6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="38.25">
-      <c r="A106" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B106" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="C106" t="e">
-        <f t="shared" si="33"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D106" t="e">
-        <f t="shared" si="34"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E106" t="e">
-        <f t="shared" si="35"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F106" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G106" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H106" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I106" t="e">
-        <f t="shared" si="39"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J106" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="24"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1"/>
+      <c r="B104" s="25"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1"/>
+      <c r="B105" s="25"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1"/>
+      <c r="B106" s="25"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1"/>
-      <c r="B107" s="24"/>
+      <c r="B107" s="25"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1"/>
-      <c r="B108" s="24"/>
+      <c r="B108" s="25"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1"/>
@@ -12949,67 +13263,243 @@
       <c r="A110" s="1"/>
       <c r="B110" s="24"/>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:10" ht="23.25">
+      <c r="A111" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="B111" s="24"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="1"/>
-      <c r="B112" s="24"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="24"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="24"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="24"/>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="A112" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" t="s">
+        <v>55</v>
+      </c>
+      <c r="H112" t="s">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s">
+        <v>56</v>
+      </c>
+      <c r="J112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="25.5">
+      <c r="A113" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$15,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,11,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J113" t="e">
+        <f>VLOOKUP(B113,$BG$4:$BR$6,12,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="25.5">
+      <c r="A114" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" t="e">
+        <f>VLOOKUP(B114,$BG$4:$BR$15,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D114" t="e">
+        <f t="shared" ref="D114:D115" si="15">VLOOKUP(B114,$BG$4:$BR$6,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E114" t="e">
+        <f t="shared" ref="E114:E115" si="16">VLOOKUP(B114,$BG$4:$BR$6,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F114" t="e">
+        <f t="shared" ref="F114:F115" si="17">VLOOKUP(B114,$BG$4:$BR$6,7,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" t="e">
+        <f t="shared" ref="G114:G115" si="18">VLOOKUP(B114,$BG$4:$BR$6,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H114" t="e">
+        <f t="shared" ref="H114:H115" si="19">VLOOKUP(B114,$BG$4:$BR$6,10,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I114" t="e">
+        <f t="shared" ref="I114:I115" si="20">VLOOKUP(B114,$BG$4:$BR$6,11,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J114" t="e">
+        <f t="shared" ref="J114:J115" si="21">VLOOKUP(B114,$BG$4:$BR$6,12,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="38.25">
+      <c r="A115" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C115" t="e">
+        <f>VLOOKUP(B115,$BG$4:$BR$15,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D115" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E115" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F115" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G115" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H115" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I115" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J115" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1"/>
       <c r="B116" s="24"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:10">
       <c r="A117" s="1"/>
       <c r="B117" s="24"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:10">
       <c r="A118" s="1"/>
       <c r="B118" s="24"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:10">
       <c r="A119" s="1"/>
       <c r="B119" s="24"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:10">
       <c r="A120" s="1"/>
       <c r="B120" s="24"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:10">
       <c r="A121" s="1"/>
       <c r="B121" s="24"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:10">
       <c r="A122" s="1"/>
       <c r="B122" s="24"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:10">
       <c r="A123" s="1"/>
       <c r="B123" s="24"/>
     </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1"/>
+      <c r="B124" s="24"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="1"/>
+      <c r="B125" s="24"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1"/>
+      <c r="B126" s="24"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1"/>
+      <c r="B127" s="24"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1"/>
+      <c r="B128" s="24"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="24"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="24"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="24"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AK2:AN2"/>
     <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AR2:AV2"/>
     <mergeCell ref="AW2:BA2"/>
@@ -13018,8 +13508,6 @@
     <mergeCell ref="BI2:BO2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
